--- a/trabalho final.xlsx
+++ b/trabalho final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semin\OneDrive\Documentos\2021.1\tabelas de sobrevivencia\tabela-multiplos-decrementos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C56E0FF-509A-4439-83C9-A5F4F65E4FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9AFEBB-8366-49E3-A6D4-1393AEAF1747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1515" windowWidth="15510" windowHeight="9405" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="masculino" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="55">
   <si>
     <t xml:space="preserve"> Mortalidade - Rio Grande do Norte</t>
   </si>
@@ -1074,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T124"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:H34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10722,10 +10722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59100D1-F673-4DE3-AA8E-C9A1C185D018}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10733,314 +10733,353 @@
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
-        <f>F2-SUM(A2:D2)</f>
+      <c r="F2" s="2">
+        <f>G2-SUM(B2:E2)</f>
         <v>325</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>354</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>25171</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E13" si="0">F3-SUM(A3:D3)</f>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F13" si="0">G3-SUM(B3:E3)</f>
         <v>26</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>46</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>97702</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>13</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>44</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>133055</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>28</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>46</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>152520</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>314</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>361</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>152679</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>34</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>29</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>28</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>655</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>826</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>303727</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
         <v>37</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>39</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>67</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>464</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>784</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>237184</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
         <v>49</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>93</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>168</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>330</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>358</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>998</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>198581</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
         <v>49</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>203</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>283</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>173</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>409</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1117</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>123684</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
         <v>40</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>343</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>493</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>114</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1422</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>82865</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
         <v>42</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>369</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>646</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>67</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1718</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>45331</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
         <v>72</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>368</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1002</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>58</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>1098</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2598</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>25677</v>
       </c>
     </row>
@@ -11051,322 +11090,361 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B8788D-6F2B-4E69-BC81-0369D874FC4F}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>17</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
-        <f>F2-SUM(A2:D2)</f>
+      <c r="F2" s="2">
+        <f>G2-SUM(B2:E2)</f>
         <v>273</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>298</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>24088</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E13" si="0">F3-SUM(A3:D3)</f>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F13" si="0">G3-SUM(B3:E3)</f>
         <v>29</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>47</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>93907</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>27</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>127768</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>11</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>36</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>146740</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>25</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>65</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>150218</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>17</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>51</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>162</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>305628</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>51</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>44</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>47</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>236</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>249049</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
         <v>24</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>156</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>122</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>31</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>444</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>215395</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>244</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>205</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>31</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>709</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>142414</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
         <v>30</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>283</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>360</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>15</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1059</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>100041</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
         <v>31</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>293</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>524</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>33</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1444</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>59030</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
         <v>103</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>325</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1139</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>50</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>1458</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3075</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>35744</v>
       </c>
     </row>
